--- a/biology/Zoologie/Aname_barrema/Aname_barrema.xlsx
+++ b/biology/Zoologie/Aname_barrema/Aname_barrema.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Aname barrema est une espèce d'araignées mygalomorphes de la famille des Anamidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Aname barrema est une espèce d'araignées mygalomorphes de la famille des Anamidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est endémique du Queensland en Australie[1]. Elle se rencontre dans la forêt d'État de Braemar, dans le parc national de Girraween, vers Chinchilla, Doondi Station et Moombah[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est endémique du Queensland en Australie. Elle se rencontre dans la forêt d'État de Braemar, dans le parc national de Girraween, vers Chinchilla, Doondi Station et Moombah.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La carapace du mâle holotype mesure 7,85 mm de long sur 7,15 mm et l'abdomen 7,76 mm de long sur 4,90 mm et la carapace de la femelle paratype mesure 10,52 mm de long sur 8,30 mm et l'abdomen 12,40 mm de long sur 8,20 mm[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La carapace du mâle holotype mesure 7,85 mm de long sur 7,15 mm et l'abdomen 7,76 mm de long sur 4,90 mm et la carapace de la femelle paratype mesure 10,52 mm de long sur 8,30 mm et l'abdomen 12,40 mm de long sur 8,20 mm.
 </t>
         </is>
       </c>
@@ -573,7 +589,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Raven, 1985 : A revision of the Aname pallida species-group in northern Australia. Australian Journal of Zoology, vol. 33, no 3, p. 377-409.</t>
         </is>
